--- a/hardware/documentation/stm32f407vgtx/NPC Peripherals usage.xlsx
+++ b/hardware/documentation/stm32f407vgtx/NPC Peripherals usage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Modules</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Clock</t>
   </si>
   <si>
-    <t>NeoPixels</t>
-  </si>
-  <si>
     <t>Bluetooth</t>
   </si>
   <si>
@@ -93,26 +91,62 @@
     <t>Screen</t>
   </si>
   <si>
-    <t>PA0,PE0,PC8-12,PD11-15</t>
-  </si>
-  <si>
-    <t>SPI3</t>
-  </si>
-  <si>
-    <t>Slave</t>
-  </si>
-  <si>
     <t>USART2</t>
   </si>
   <si>
-    <t>PA2-3</t>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>USART3</t>
+  </si>
+  <si>
+    <t>Temparute</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Time-weekday</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>PA2,PA3</t>
+  </si>
+  <si>
+    <t>PC10,PC11</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PA15,PB3-PB5</t>
+  </si>
+  <si>
+    <t>TIMX</t>
+  </si>
+  <si>
+    <t>PXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,19 +154,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,24 +176,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -172,18 +188,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,57 +255,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +508,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="B3:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,358 +765,595 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="H20" s="18">
+        <v>5</v>
+      </c>
+      <c r="I20" s="18">
+        <v>6</v>
+      </c>
+      <c r="J20" s="18">
+        <v>7</v>
+      </c>
+      <c r="K20" s="18">
+        <v>8</v>
+      </c>
+      <c r="L20" s="18">
         <v>9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15" t="s">
+      <c r="M20" s="18">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="N20" s="18">
+        <v>11</v>
+      </c>
+      <c r="O20" s="18">
+        <v>12</v>
+      </c>
+      <c r="P20" s="18">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="18">
         <v>14</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
+      <c r="R20" s="18">
         <v>15</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2">
-        <v>8</v>
-      </c>
-      <c r="L14" s="2">
-        <v>9</v>
-      </c>
-      <c r="M14" s="2">
-        <v>10</v>
-      </c>
-      <c r="N14" s="2">
-        <v>11</v>
-      </c>
-      <c r="O14" s="2">
-        <v>12</v>
-      </c>
-      <c r="P14" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>14</v>
-      </c>
-      <c r="R14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="48">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="L8:R8"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D5:K5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="L7:R7"/>
     <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -922,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -935,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
